--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2372899.52871091</v>
+        <v>-2375705.474766101</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15990882.99372718</v>
+        <v>15990882.99372717</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>62.76894923382999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0588908408162</v>
+        <v>414.0588908408161</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.73533428546439</v>
+        <v>71.73533428546382</v>
       </c>
       <c r="S2" t="n">
-        <v>180.6759134952032</v>
+        <v>180.6759134952029</v>
       </c>
       <c r="T2" t="n">
-        <v>217.6509107473003</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.246145173891</v>
+        <v>86.07211872628969</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>70.6401596024328</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.6780005204371</v>
       </c>
       <c r="H3" t="n">
-        <v>77.92868079460257</v>
+        <v>105.8079545549729</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.48301159802709</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.83742364780772</v>
+        <v>58.83742364780741</v>
       </c>
       <c r="S3" t="n">
-        <v>159.3214913575834</v>
+        <v>29.64084844499261</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4822295952212</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8975980913187</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>159.7199903842532</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>126.1670004125234</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.4416073559332</v>
+        <v>39.44160735593285</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.03658810686523</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -947,19 +947,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>142.4956411649719</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>65.52699321158141</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>143.7787198346241</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1057,25 +1057,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>27.55417699322437</v>
       </c>
       <c r="W7" t="n">
-        <v>36.01254132312604</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.03052899048061</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>143.5160734206488</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>135.7545882751504</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>111.2769414403097</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>21.35866177150533</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>143.5476780877535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>118.1224962516658</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.2132752806839</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>80.33989744909005</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>177.1006680594869</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652581</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1193.06170926805</v>
+        <v>887.5021713517092</v>
       </c>
       <c r="C2" t="n">
-        <v>824.0991923276383</v>
+        <v>887.5021713517092</v>
       </c>
       <c r="D2" t="n">
-        <v>465.8334937208879</v>
+        <v>529.2364727449587</v>
       </c>
       <c r="E2" t="n">
-        <v>465.8334937208879</v>
+        <v>465.833493720888</v>
       </c>
       <c r="F2" t="n">
-        <v>465.8334937208879</v>
+        <v>465.833493720888</v>
       </c>
       <c r="G2" t="n">
-        <v>47.59218984127558</v>
+        <v>47.5921898412758</v>
       </c>
       <c r="H2" t="n">
-        <v>47.59218984127558</v>
+        <v>47.5921898412758</v>
       </c>
       <c r="I2" t="n">
-        <v>47.59218984127558</v>
+        <v>47.5921898412758</v>
       </c>
       <c r="J2" t="n">
-        <v>140.2766257379391</v>
+        <v>140.2766257379401</v>
       </c>
       <c r="K2" t="n">
-        <v>399.9313734332717</v>
+        <v>399.9313734332738</v>
       </c>
       <c r="L2" t="n">
-        <v>774.3326757349359</v>
+        <v>774.3326757349395</v>
       </c>
       <c r="M2" t="n">
-        <v>1207.53280942632</v>
+        <v>1207.532809426326</v>
       </c>
       <c r="N2" t="n">
-        <v>1633.110576631815</v>
+        <v>1633.110576631821</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.783956408637</v>
+        <v>1989.783956408645</v>
       </c>
       <c r="P2" t="n">
-        <v>2256.522051210336</v>
+        <v>2256.522051210346</v>
       </c>
       <c r="Q2" t="n">
-        <v>2379.609492063779</v>
+        <v>2379.60949206379</v>
       </c>
       <c r="R2" t="n">
-        <v>2307.149558442098</v>
+        <v>2307.149558442109</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.648635719671</v>
+        <v>2124.648635719682</v>
       </c>
       <c r="T2" t="n">
-        <v>1904.799230924418</v>
+        <v>2124.648635719682</v>
       </c>
       <c r="U2" t="n">
-        <v>1651.015245900286</v>
+        <v>2037.707101652722</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.015245900286</v>
+        <v>2037.707101652722</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.015245900286</v>
+        <v>2037.707101652722</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.015245900286</v>
+        <v>1664.241343391643</v>
       </c>
       <c r="Y2" t="n">
-        <v>1579.661549332172</v>
+        <v>1274.102011415831</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>893.5260673329715</v>
+        <v>988.8415070889288</v>
       </c>
       <c r="C3" t="n">
-        <v>719.0730380518445</v>
+        <v>814.3884778078018</v>
       </c>
       <c r="D3" t="n">
-        <v>570.1386283905932</v>
+        <v>665.4540681465505</v>
       </c>
       <c r="E3" t="n">
-        <v>410.9011733851377</v>
+        <v>506.216613141095</v>
       </c>
       <c r="F3" t="n">
-        <v>264.3666154120227</v>
+        <v>359.6820551679799</v>
       </c>
       <c r="G3" t="n">
-        <v>126.3080290277428</v>
+        <v>221.6234687837</v>
       </c>
       <c r="H3" t="n">
-        <v>47.59218984127558</v>
+        <v>114.7467470110001</v>
       </c>
       <c r="I3" t="n">
-        <v>47.59218984127558</v>
+        <v>47.5921898412758</v>
       </c>
       <c r="J3" t="n">
-        <v>109.1010252263739</v>
+        <v>47.5921898412758</v>
       </c>
       <c r="K3" t="n">
-        <v>340.8502649974749</v>
+        <v>279.3414296123776</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8701137890691</v>
+        <v>652.3612784039728</v>
       </c>
       <c r="M3" t="n">
-        <v>996.2618574529059</v>
+        <v>1139.637069374457</v>
       </c>
       <c r="N3" t="n">
-        <v>1512.141402063466</v>
+        <v>1655.516613985019</v>
       </c>
       <c r="O3" t="n">
-        <v>1917.65472188134</v>
+        <v>2061.029933802894</v>
       </c>
       <c r="P3" t="n">
-        <v>2226.111844043569</v>
+        <v>2369.487055965124</v>
       </c>
       <c r="Q3" t="n">
-        <v>2379.609492063779</v>
+        <v>2379.60949206379</v>
       </c>
       <c r="R3" t="n">
-        <v>2320.177751005388</v>
+        <v>2320.177751005398</v>
       </c>
       <c r="S3" t="n">
-        <v>2159.246951654293</v>
+        <v>2290.23750005086</v>
       </c>
       <c r="T3" t="n">
-        <v>1959.769952063161</v>
+        <v>2290.23750005086</v>
       </c>
       <c r="U3" t="n">
-        <v>1731.590560051728</v>
+        <v>2062.058108039428</v>
       </c>
       <c r="V3" t="n">
-        <v>1731.590560051728</v>
+        <v>1826.905999807685</v>
       </c>
       <c r="W3" t="n">
-        <v>1477.353203323526</v>
+        <v>1572.668643079483</v>
       </c>
       <c r="X3" t="n">
-        <v>1269.501703117993</v>
+        <v>1364.817142873951</v>
       </c>
       <c r="Y3" t="n">
-        <v>1061.74140435304</v>
+        <v>1157.056844108997</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2118.976905490014</v>
+        <v>2085.084996427668</v>
       </c>
       <c r="C4" t="n">
-        <v>1957.643581869556</v>
+        <v>2085.084996427668</v>
       </c>
       <c r="D4" t="n">
-        <v>1807.52694245722</v>
+        <v>1934.968357015332</v>
       </c>
       <c r="E4" t="n">
-        <v>1807.52694245722</v>
+        <v>1934.968357015332</v>
       </c>
       <c r="F4" t="n">
-        <v>1807.52694245722</v>
+        <v>1934.968357015332</v>
       </c>
       <c r="G4" t="n">
-        <v>1807.52694245722</v>
+        <v>1934.968357015332</v>
       </c>
       <c r="H4" t="n">
-        <v>1807.52694245722</v>
+        <v>1934.968357015332</v>
       </c>
       <c r="I4" t="n">
-        <v>1807.52694245722</v>
+        <v>1807.526942457228</v>
       </c>
       <c r="J4" t="n">
-        <v>1807.52694245722</v>
+        <v>1807.526942457228</v>
       </c>
       <c r="K4" t="n">
-        <v>1849.655186157603</v>
+        <v>1849.655186157611</v>
       </c>
       <c r="L4" t="n">
-        <v>1959.091268450398</v>
+        <v>1959.091268450406</v>
       </c>
       <c r="M4" t="n">
-        <v>2084.865396251686</v>
+        <v>2084.865396251694</v>
       </c>
       <c r="N4" t="n">
-        <v>2213.08351283471</v>
+        <v>2213.083512834719</v>
       </c>
       <c r="O4" t="n">
-        <v>2315.497400688176</v>
+        <v>2315.497400688186</v>
       </c>
       <c r="P4" t="n">
-        <v>2379.609492063779</v>
+        <v>2379.60949206379</v>
       </c>
       <c r="Q4" t="n">
-        <v>2339.769484633544</v>
+        <v>2339.769484633554</v>
       </c>
       <c r="R4" t="n">
-        <v>2339.769484633544</v>
+        <v>2339.769484633554</v>
       </c>
       <c r="S4" t="n">
-        <v>2339.769484633544</v>
+        <v>2339.769484633554</v>
       </c>
       <c r="T4" t="n">
-        <v>2339.769484633544</v>
+        <v>2339.769484633554</v>
       </c>
       <c r="U4" t="n">
-        <v>2339.769484633544</v>
+        <v>2339.769484633554</v>
       </c>
       <c r="V4" t="n">
-        <v>2339.769484633544</v>
+        <v>2085.084996427668</v>
       </c>
       <c r="W4" t="n">
-        <v>2339.769484633544</v>
+        <v>2085.084996427668</v>
       </c>
       <c r="X4" t="n">
-        <v>2339.769484633544</v>
+        <v>2085.084996427668</v>
       </c>
       <c r="Y4" t="n">
-        <v>2118.976905490014</v>
+        <v>2085.084996427668</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>913.1961549081589</v>
+        <v>1657.250106113153</v>
       </c>
       <c r="C5" t="n">
-        <v>913.1961549081589</v>
+        <v>1657.250106113153</v>
       </c>
       <c r="D5" t="n">
-        <v>913.1961549081589</v>
+        <v>1298.984407506403</v>
       </c>
       <c r="E5" t="n">
-        <v>913.1961549081589</v>
+        <v>913.1961549081587</v>
       </c>
       <c r="F5" t="n">
-        <v>502.2102501185513</v>
+        <v>906.2506541589553</v>
       </c>
       <c r="G5" t="n">
         <v>489.1628723953828</v>
@@ -4565,22 +4565,22 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>434.6131205227163</v>
       </c>
       <c r="L5" t="n">
-        <v>294.3728469772319</v>
+        <v>987.4263787689155</v>
       </c>
       <c r="M5" t="n">
-        <v>926.0906579605437</v>
+        <v>1619.144189752227</v>
       </c>
       <c r="N5" t="n">
-        <v>1553.39832602039</v>
+        <v>2246.451857812074</v>
       </c>
       <c r="O5" t="n">
-        <v>2098.040162039265</v>
+        <v>2416.620883129033</v>
       </c>
       <c r="P5" t="n">
         <v>2527.35520837856</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164694</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164694</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.061403553412</v>
+        <v>2191.324429164694</v>
       </c>
       <c r="W5" t="n">
-        <v>1722.292748283298</v>
+        <v>2191.324429164694</v>
       </c>
       <c r="X5" t="n">
-        <v>1348.826990022218</v>
+        <v>2047.389438088965</v>
       </c>
       <c r="Y5" t="n">
-        <v>958.6876580464066</v>
+        <v>1657.250106113153</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>918.7636139849254</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>744.3105847037984</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>595.3761750425472</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378974</v>
+        <v>436.1387200370916</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647824</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4650,46 +4650,46 @@
         <v>118.8546062313601</v>
       </c>
       <c r="L6" t="n">
-        <v>256.0842042470541</v>
+        <v>613.1187833600793</v>
       </c>
       <c r="M6" t="n">
-        <v>890.2631880260925</v>
+        <v>1247.297767139118</v>
       </c>
       <c r="N6" t="n">
-        <v>1358.222095106128</v>
+        <v>1881.476750918156</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2430.912759670879</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2417.108298264171</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2220.119002424259</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1991.980214935424</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1756.828106703682</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1502.59074997548</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1294.739249769947</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1086.978951004993</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>685.4307199857979</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>516.494537057891</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>516.494537057891</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>516.494537057891</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>516.494537057891</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>347.8876920532743</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>193.6330489530394</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>843.7411832797532</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="T7" t="n">
-        <v>843.7411832797532</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="U7" t="n">
-        <v>554.5890068574329</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="V7" t="n">
-        <v>554.5890068574329</v>
+        <v>685.4307199857979</v>
       </c>
       <c r="W7" t="n">
-        <v>518.2127024906389</v>
+        <v>685.4307199857979</v>
       </c>
       <c r="X7" t="n">
-        <v>518.2127024906389</v>
+        <v>685.4307199857979</v>
       </c>
       <c r="Y7" t="n">
-        <v>518.2127024906389</v>
+        <v>685.4307199857979</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.287154902436</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
         <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656511</v>
+        <v>1939.905734928583</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.732133680699</v>
+        <v>1939.905734928583</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.038517360656</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.323645957601</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>791.0311677684842</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C10" t="n">
-        <v>622.0949848405774</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282416</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1302.691525491782</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>1013.57318799562</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.862713590079</v>
+        <v>1013.57318799562</v>
       </c>
       <c r="W10" t="n">
-        <v>1421.461762640271</v>
+        <v>724.1560179586596</v>
       </c>
       <c r="X10" t="n">
-        <v>1193.472211742254</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="Y10" t="n">
-        <v>972.679632598724</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>633.992644467967</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>486.0795508855739</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>339.1896033876635</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1425.313279727861</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2077.746892708107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1788.671666052305</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1533.987177846418</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.570007809457</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.58045691144</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958739</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>633.992644467967</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261136</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,10 +6315,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,46 +6692,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6850,19 +6850,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6874,16 +6874,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7190,7 +7190,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7248,7 +7248,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7330,40 +7330,40 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954156</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380735</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7391,67 +7391,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7503,10 +7503,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7628,34 +7628,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7822,10 +7822,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,22 +7834,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>63.96089858778382</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>258.7514806119735</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>65.25384135045029</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>113.2962427943277</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8228,10 +8228,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>378.2553643453692</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8298,22 +8298,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>360.6409890030558</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378117</v>
+        <v>459.2743913378116</v>
       </c>
       <c r="N6" t="n">
-        <v>272.0223893205763</v>
+        <v>439.9214566933067</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,28 +8532,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>73.6605958099978</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.371181585577118e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-3.371181585577118e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.7362573623985</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.6509107473003</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>165.1740264476013</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.5977790536208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.526830714374626</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4330325613104</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.385838357294551</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.2931070357591</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2885958948282</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>144.1654765207635</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.03697526434127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>99.2829540756225</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.61870490125338</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>66.09406519747913</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1378858.603088147</v>
+        <v>1378858.603088146</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1378858.603088147</v>
+        <v>1378858.603088146</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1378858.603088146</v>
+        <v>1378858.603088147</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33850.42817886434</v>
+        <v>33850.42817886435</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321415</v>
@@ -26320,40 +26320,40 @@
         <v>41052.08849321419</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="I2" t="n">
         <v>40357.32998450029</v>
       </c>
       <c r="J2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="K2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321421</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497513.940765614</v>
+        <v>497513.9407656171</v>
       </c>
       <c r="C3" t="n">
-        <v>273432.6815691309</v>
+        <v>273432.6815691279</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
         <v>507485.441624546</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155652.6364853839</v>
+        <v>155652.6364853845</v>
       </c>
       <c r="K3" t="n">
-        <v>11757.20312955506</v>
+        <v>11757.20312955441</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178690.4677814943</v>
+        <v>178690.4677814936</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26430,34 +26430,34 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.368461719688</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719647</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481317</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481308</v>
+        <v>15498.22772481309</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481316</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76542.73383253231</v>
+        <v>76542.73383253253</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905216</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-718896.7142007763</v>
+        <v>-719256.7972164963</v>
       </c>
       <c r="C6" t="n">
-        <v>-516206.1645151211</v>
+        <v>-516206.1645151182</v>
       </c>
       <c r="D6" t="n">
-        <v>-476684.5570164013</v>
+        <v>-476684.5570164014</v>
       </c>
       <c r="E6" t="n">
-        <v>-575758.0099256724</v>
+        <v>-575792.7478511081</v>
       </c>
       <c r="F6" t="n">
-        <v>-68272.56830112646</v>
+        <v>-68307.30622656217</v>
       </c>
       <c r="G6" t="n">
-        <v>-68272.56830112645</v>
+        <v>-68307.30622656217</v>
       </c>
       <c r="H6" t="n">
-        <v>-68272.56830112645</v>
+        <v>-68307.30622656217</v>
       </c>
       <c r="I6" t="n">
-        <v>-68272.56830112649</v>
+        <v>-68307.3062265622</v>
       </c>
       <c r="J6" t="n">
-        <v>-223925.2047865104</v>
+        <v>-223959.9427119468</v>
       </c>
       <c r="K6" t="n">
-        <v>-80029.77143068155</v>
+        <v>-80064.5093561166</v>
       </c>
       <c r="L6" t="n">
-        <v>-97037.97307914612</v>
+        <v>-97037.97307914615</v>
       </c>
       <c r="M6" t="n">
-        <v>-210217.5488144411</v>
+        <v>-210217.548814441</v>
       </c>
       <c r="N6" t="n">
-        <v>-77610.25508551423</v>
+        <v>-77610.25508551442</v>
       </c>
       <c r="O6" t="n">
-        <v>-77610.25508551436</v>
+        <v>-77610.25508551438</v>
       </c>
       <c r="P6" t="n">
         <v>-77610.25508551436</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368291</v>
+        <v>309.4068602368313</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159448</v>
+        <v>594.9023730159474</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368291</v>
+        <v>309.4068602368313</v>
       </c>
       <c r="C3" t="n">
-        <v>284.069240101236</v>
+        <v>284.0692401012337</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159448</v>
+        <v>594.9023730159474</v>
       </c>
       <c r="C4" t="n">
-        <v>45.68245908409392</v>
+        <v>45.68245908409131</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159449</v>
+        <v>594.9023730159474</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409381</v>
+        <v>45.68245908409131</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159448</v>
+        <v>594.9023730159474</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409392</v>
+        <v>45.68245908409131</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>319.1614208384318</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.7362573623986</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.5224906587261</v>
+        <v>162.5224906587258</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>27.87927376037032</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.48301159802726</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>129.6806429125907</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4822295952212</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4330325613104</v>
       </c>
       <c r="H4" t="n">
         <v>157.2665182564294</v>
       </c>
       <c r="I4" t="n">
-        <v>132.2856547066288</v>
+        <v>12.50449265139979</v>
       </c>
       <c r="J4" t="n">
-        <v>53.91234155828229</v>
+        <v>53.91234155828201</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.2060744799341</v>
+        <v>152.206074479934</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.293107035759</v>
       </c>
       <c r="T4" t="n">
         <v>225.5616349313748</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2885958948282</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>337.6972535566154</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>227.2354595134972</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>70.53999045278886</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4.193401411367489</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>224.5834663306036</v>
       </c>
       <c r="W7" t="n">
-        <v>250.510457013465</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>341.703312673</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>226.2150272578203</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>84.99410772206153</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>175.2460568962813</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-1.364520294897987e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.24384667431891</v>
+        <v>1.243846674318919</v>
       </c>
       <c r="H2" t="n">
-        <v>12.73854475336854</v>
+        <v>12.73854475336863</v>
       </c>
       <c r="I2" t="n">
-        <v>47.95339891167982</v>
+        <v>47.95339891168017</v>
       </c>
       <c r="J2" t="n">
-        <v>105.5699316744747</v>
+        <v>105.5699316744754</v>
       </c>
       <c r="K2" t="n">
-        <v>158.2219613983941</v>
+        <v>158.2219613983953</v>
       </c>
       <c r="L2" t="n">
-        <v>196.2883340575815</v>
+        <v>196.288334057583</v>
       </c>
       <c r="M2" t="n">
-        <v>218.4085923520004</v>
+        <v>218.408592352002</v>
       </c>
       <c r="N2" t="n">
-        <v>221.9426717154091</v>
+        <v>221.9426717154107</v>
       </c>
       <c r="O2" t="n">
-        <v>209.5741713476504</v>
+        <v>209.5741713476519</v>
       </c>
       <c r="P2" t="n">
-        <v>178.8667065754023</v>
+        <v>178.8667065754036</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.3214475513563</v>
+        <v>134.3214475513573</v>
       </c>
       <c r="R2" t="n">
-        <v>78.13378365568529</v>
+        <v>78.13378365568586</v>
       </c>
       <c r="S2" t="n">
-        <v>28.34415609104219</v>
+        <v>28.3441560910424</v>
       </c>
       <c r="T2" t="n">
-        <v>5.444938816831031</v>
+        <v>5.444938816831071</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09950773394551277</v>
+        <v>0.0995077339455135</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6655166427735568</v>
+        <v>0.6655166427735618</v>
       </c>
       <c r="H3" t="n">
-        <v>6.427489681523563</v>
+        <v>6.42748968152361</v>
       </c>
       <c r="I3" t="n">
-        <v>22.91362125338782</v>
+        <v>22.91362125338798</v>
       </c>
       <c r="J3" t="n">
-        <v>62.87672807888242</v>
+        <v>62.87672807888288</v>
       </c>
       <c r="K3" t="n">
-        <v>107.4663431447107</v>
+        <v>107.4663431447115</v>
       </c>
       <c r="L3" t="n">
-        <v>144.5017605285304</v>
+        <v>144.5017605285315</v>
       </c>
       <c r="M3" t="n">
-        <v>168.6267388290718</v>
+        <v>168.626738829073</v>
       </c>
       <c r="N3" t="n">
-        <v>173.0897868413559</v>
+        <v>173.0897868413572</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3433391251629</v>
+        <v>158.3433391251641</v>
       </c>
       <c r="P3" t="n">
-        <v>127.0844894433119</v>
+        <v>127.0844894433129</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.95261566351579</v>
+        <v>84.95261566351641</v>
       </c>
       <c r="R3" t="n">
-        <v>41.32041050483542</v>
+        <v>41.32041050483572</v>
       </c>
       <c r="S3" t="n">
-        <v>12.36167974625444</v>
+        <v>12.36167974625453</v>
       </c>
       <c r="T3" t="n">
-        <v>2.682499099600432</v>
+        <v>2.682499099600452</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04378398965615508</v>
+        <v>0.0437839896561554</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5579467971483802</v>
+        <v>0.5579467971483844</v>
       </c>
       <c r="H4" t="n">
-        <v>4.960654251010148</v>
+        <v>4.960654251010184</v>
       </c>
       <c r="I4" t="n">
-        <v>16.77898186333493</v>
+        <v>16.77898186333505</v>
       </c>
       <c r="J4" t="n">
-        <v>39.44683855839048</v>
+        <v>39.44683855839077</v>
       </c>
       <c r="K4" t="n">
-        <v>64.82327334142089</v>
+        <v>64.82327334142137</v>
       </c>
       <c r="L4" t="n">
-        <v>82.95147200513283</v>
+        <v>82.95147200513344</v>
       </c>
       <c r="M4" t="n">
-        <v>87.46069657481381</v>
+        <v>87.46069657481445</v>
       </c>
       <c r="N4" t="n">
-        <v>85.38107669453355</v>
+        <v>85.38107669453417</v>
       </c>
       <c r="O4" t="n">
-        <v>78.86324365511835</v>
+        <v>78.86324365511894</v>
       </c>
       <c r="P4" t="n">
-        <v>67.48112899329134</v>
+        <v>67.48112899329183</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.72043589576118</v>
+        <v>46.72043589576153</v>
       </c>
       <c r="R4" t="n">
-        <v>25.08731689723534</v>
+        <v>25.08731689723553</v>
       </c>
       <c r="S4" t="n">
-        <v>9.723491001213132</v>
+        <v>9.723491001213203</v>
       </c>
       <c r="T4" t="n">
-        <v>2.383954496906715</v>
+        <v>2.383954496906732</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03043346166263896</v>
+        <v>0.03043346166263918</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,22 +33026,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.62064231986216</v>
+        <v>93.62064231986292</v>
       </c>
       <c r="K2" t="n">
-        <v>262.2775229245783</v>
+        <v>262.2775229245795</v>
       </c>
       <c r="L2" t="n">
-        <v>378.1831336380448</v>
+        <v>378.1831336380462</v>
       </c>
       <c r="M2" t="n">
-        <v>437.5758926175602</v>
+        <v>437.5758926175618</v>
       </c>
       <c r="N2" t="n">
-        <v>429.8765325308023</v>
+        <v>429.876532530804</v>
       </c>
       <c r="O2" t="n">
-        <v>360.276141188709</v>
+        <v>360.2761411887105</v>
       </c>
       <c r="P2" t="n">
-        <v>269.4324189916154</v>
+        <v>269.4324189916167</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3307483368115</v>
+        <v>124.3307483368125</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.13013675262456</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>234.0901411829303</v>
+        <v>234.0901411829311</v>
       </c>
       <c r="L3" t="n">
-        <v>376.7877260521154</v>
+        <v>376.7877260521165</v>
       </c>
       <c r="M3" t="n">
-        <v>285.244185519027</v>
+        <v>492.1977686570547</v>
       </c>
       <c r="N3" t="n">
-        <v>521.0904491015762</v>
+        <v>521.0904491015774</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6094139574479</v>
+        <v>409.6094139574491</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5728506689189</v>
+        <v>311.5728506689198</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.0481293133434</v>
+        <v>10.22468292794518</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.55378151553803</v>
+        <v>42.55378151553852</v>
       </c>
       <c r="L4" t="n">
-        <v>110.541497265449</v>
+        <v>110.5414972654496</v>
       </c>
       <c r="M4" t="n">
-        <v>127.0445735366544</v>
+        <v>127.044573536655</v>
       </c>
       <c r="N4" t="n">
-        <v>129.5132490737622</v>
+        <v>129.5132490737628</v>
       </c>
       <c r="O4" t="n">
-        <v>103.448371569158</v>
+        <v>103.4483715691586</v>
       </c>
       <c r="P4" t="n">
-        <v>64.75968825818482</v>
+        <v>64.75968825818532</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>196.6933686272493</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34948,10 +34948,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>550.1432687059344</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35018,22 +35018,22 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>499.2567445744638</v>
       </c>
       <c r="M6" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>472.6857647273083</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>440.5919280920382</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>197.8432633066783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
